--- a/docs/HospTable.xlsx
+++ b/docs/HospTable.xlsx
@@ -1,106 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dasgupab\Ward\SLE_Infection\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Levels</t>
-  </si>
-  <si>
-    <t>High Relative, High Absolute</t>
-  </si>
-  <si>
-    <t>High Relative, Low Absolute</t>
-  </si>
-  <si>
-    <t>Low Relative, High Absolute</t>
-  </si>
-  <si>
-    <t>Low Relative, Low Absolute</t>
-  </si>
-  <si>
-    <t>SLE experience</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Bed size</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
-    <t>Urban non-teaching</t>
-  </si>
-  <si>
-    <t>Urban teaching</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>West</t>
+    <t xml:space="preserve">Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Relative, High Absolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Relative, Low Absolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Relative, High Absolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Relative, Low Absolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLE experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban non-teaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban teaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midwest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -116,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -124,40 +110,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -439,267 +402,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" t="n">
         <v>76.92</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" t="n">
         <v>50</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" t="n">
         <v>85.55</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>70.52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" t="n">
         <v>23.08</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" t="n">
         <v>50</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" t="n">
         <v>14.45</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" t="n">
         <v>29.48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
-        <v>71.790000000000006</v>
-      </c>
-      <c r="D4" s="4">
-        <v>65.790000000000006</v>
-      </c>
-      <c r="E4" s="4">
-        <v>77.459999999999994</v>
-      </c>
-      <c r="F4">
+      <c r="C4" t="n">
+        <v>71.79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.79</v>
+      </c>
+      <c r="E4" t="n">
+        <v>77.46</v>
+      </c>
+      <c r="F4" t="n">
         <v>62.43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" t="n">
         <v>23.08</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" t="n">
         <v>23.68</v>
       </c>
-      <c r="E5" s="4">
-        <v>19.079999999999998</v>
-      </c>
-      <c r="F5">
+      <c r="E5" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="F5" t="n">
         <v>27.75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" t="n">
         <v>5.13</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" t="n">
         <v>10.53</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" t="n">
         <v>3.47</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" t="n">
         <v>9.83</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" t="n">
         <v>2.56</v>
       </c>
-      <c r="D7" s="4">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F7">
+      <c r="D7" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F7" t="n">
         <v>8.09</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" t="n">
         <v>30.77</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" t="n">
         <v>42.11</v>
       </c>
-      <c r="E8" s="4">
-        <v>35.840000000000003</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="F8" t="n">
         <v>45.66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" t="n">
         <v>66.67</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" t="n">
         <v>39.47</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" t="n">
         <v>63.01</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" t="n">
         <v>46.24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" t="n">
         <v>7.69</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" t="n">
         <v>21.05</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" t="n">
         <v>12.14</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>24.86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" t="n">
         <v>30.77</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" t="n">
         <v>7.89</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" t="n">
         <v>16.18</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>11.56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" t="n">
         <v>35.9</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" t="n">
         <v>44.74</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" t="n">
         <v>46.24</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>41.04</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" t="n">
         <v>25.64</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" t="n">
         <v>26.32</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" t="n">
         <v>25.43</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" t="n">
         <v>22.54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="88" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>